--- a/biology/Botanique/Spartan_(pomme)/Spartan_(pomme).xlsx
+++ b/biology/Botanique/Spartan_(pomme)/Spartan_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spartan est un cultivar de pommier domestique.
 Nom botanique: Malus domestica Borkh spartan.
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a été obtenue en 1926 et diffusée en 1936, Summerland (Colombie-Britannique), Canada.
 </t>
@@ -543,7 +557,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Croisement : McIntosh × Golden Delicious
 Descendants :
@@ -575,11 +591,13 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Variété diploïde autofertile[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Variété diploïde autofertile.
 Groupe de floraison: C.
-S-génotype: S9S10[2].</t>
+S-génotype: S9S10.</t>
         </is>
       </c>
     </row>
@@ -607,12 +625,14 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Tavelure: très susceptible[3]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tavelure: très susceptible
 Mildiou: très susceptible
 Rouille: très susceptible
-Feu bactérien: variété tolérante[4]</t>
+Feu bactérien: variété tolérante</t>
         </is>
       </c>
     </row>
@@ -640,7 +660,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La grande susceptibilité aux maladies fait de la Spartan une pomme nécessitant des traitements systématiques.
 </t>
